--- a/biology/Zoologie/Chiromantis_senapatiensis/Chiromantis_senapatiensis.xlsx
+++ b/biology/Zoologie/Chiromantis_senapatiensis/Chiromantis_senapatiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiromantis senapatiensis est une espèce d'amphibiens de la famille des Rhacophoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiromantis senapatiensis est une espèce d'amphibiens de la famille des Rhacophoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Manipur en Inde. Elle n'est connue que dans sa localité type, Kangpokpi, dans le district de Senapati à 1 082 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Manipur en Inde. Elle n'est connue que dans sa localité type, Kangpokpi, dans le district de Senapati à 1 082 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de senapati et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le district de Senapati.
 </t>
@@ -573,11 +589,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Chiromantis senapatiensis (Mathew &amp; Sen, 2009)[2].
-L'espèce a été initialement classée dans le genre Chirixalus sous le protonyme Chirixalus senapatiensis Mathew &amp; Sen, 2009[2].
-Chiromantis senapatiensis a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Chiromantis senapatiensis (Mathew &amp; Sen, 2009).
+L'espèce a été initialement classée dans le genre Chirixalus sous le protonyme Chirixalus senapatiensis Mathew &amp; Sen, 2009.
+Chiromantis senapatiensis a pour synonymes :
 Chirixalus senapatiensis Mathew &amp; Sen, 2009
 Rohanixalus senapatiensis (Mathew &amp; Sen, 2009) Biju, Garg, Gokulakrishnan, Chandrakasan, Thammachoti, Ren, Gopika, Bisht, Hamidy &amp; Shouche, 2020</t>
         </is>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Rosamma Mathew et Nibedita Sen, « Studies on Little Known Amphibian Species of North East India », Records of the Zoological Survey of India, Occasional Papers, Zoological Survey of India (d), vol. 293,‎ 2009, p. 1-64 (ISSN 0970-0714, OCLC 642920311, lire en ligne)</t>
         </is>
